--- a/RelaisMessung.xlsx
+++ b/RelaisMessung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Klemme</t>
   </si>
@@ -163,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,13 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,9 +513,10 @@
     <col min="2" max="4" width="11.42578125" style="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +539,11 @@
         <v>17</v>
       </c>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +551,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6300000</v>
+        <f>I2-500000</f>
+        <v>5800000</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -549,10 +563,13 @@
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE("fb",A2,"CH",B2,"(bValue:= ",E2,", udiDelayNanoSek:= ",C2,", tNextZeroVoltage:= fbAnalyseVoltagePhase",D2,".tNextZeroVoltage);")</f>
-        <v>fbA28CH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>fbA28CH1(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,21 +577,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <f t="shared" ref="C3:C49" si="0">I3-500000</f>
+        <v>6600000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">CONCATENATE("fb",A3,"CH",B3,": FB_SYNC_RELAIS;")</f>
+        <v>fbA28CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="2">CONCATENATE("fb",A3,"CH",B3,"(bValue:= ",E3,", udiDelayNanoSek:= ",C3,", tNextZeroVoltage:= fbAnalyseVoltagePhase",D3,".tNextZeroVoltage);")</f>
+        <v>fbA28CH2(bValue:= , udiDelayNanoSek:= 6600000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I3" s="1">
         <v>7100000</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">CONCATENATE("fb",A3,"CH",B3,": FB_SYNC_RELAIS;")</f>
-        <v>fbA28CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="1">CONCATENATE("fb",A3,"CH",B3,"(bValue:= ",E3,", udiDelayNanoSek:= ",C3,", tNextZeroVoltage:= fbAnalyseVoltagePhase",D3,".tNextZeroVoltage);")</f>
-        <v>fbA28CH2(bValue:= , udiDelayNanoSek:= 7100000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,21 +603,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA29CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA29CH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I4" s="1">
         <v>6800000</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA29CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA29CH1(bValue:= , udiDelayNanoSek:= 6800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,21 +629,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA29CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA29CH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I5" s="1">
         <v>7000000</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA29CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA29CH2(bValue:= , udiDelayNanoSek:= 7000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -626,21 +655,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA30CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA30CH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I6" s="1">
         <v>7000000</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA30CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA30CH1(bValue:= , udiDelayNanoSek:= 7000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,21 +681,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA30CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA30CH2(bValue:= , udiDelayNanoSek:= 5700000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I7" s="1">
         <v>6200000</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA30CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA30CH2(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,21 +707,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA31CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA31CH1(bValue:= , udiDelayNanoSek:= 5700000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I8" s="1">
         <v>6200000</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA31CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA31CH1(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -692,21 +733,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA31CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA31CH2(bValue:= , udiDelayNanoSek:= 5700000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I9" s="1">
         <v>6200000</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA31CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA31CH2(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -714,21 +759,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA32CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA32CH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I10" s="1">
         <v>6500000</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA32CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA32CH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -736,21 +785,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA32CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA32CH2(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I11" s="1">
         <v>6500000</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA32CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA32CH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -758,21 +811,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>6700000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA20CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA20CH1(bValue:= , udiDelayNanoSek:= 6700000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I12" s="1">
         <v>7200000</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA20CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA20CH1(bValue:= , udiDelayNanoSek:= 7200000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -780,21 +837,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA20CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA20CH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I13" s="1">
         <v>6300000</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA20CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA20CH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -802,21 +863,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA21CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA21CH1(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I14" s="1">
         <v>6900000</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA21CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA21CH1(bValue:= , udiDelayNanoSek:= 6900000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -824,21 +889,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA21CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA21CH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I15" s="1">
         <v>7000000</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA21CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA21CH2(bValue:= , udiDelayNanoSek:= 7000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -846,21 +915,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA23CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA23CH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I16" s="1">
         <v>7000000</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA23CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA23CH1(bValue:= , udiDelayNanoSek:= 7000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -868,21 +941,25 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA23CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA23CH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I17" s="1">
         <v>6800000</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA23CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA23CH2(bValue:= , udiDelayNanoSek:= 6800000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -890,21 +967,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA24CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA24CH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I18" s="1">
         <v>6800000</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA24CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA24CH1(bValue:= , udiDelayNanoSek:= 6800000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,21 +993,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA24CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA24CH2(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I19" s="1">
         <v>6500000</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA24CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA24CH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,21 +1019,25 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA25CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA25CH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I20" s="1">
         <v>6500000</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA25CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA25CH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,21 +1045,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA25CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA25CH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I21" s="1">
         <v>6800000</v>
       </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA25CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA25CH2(bValue:= , udiDelayNanoSek:= 6800000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -978,21 +1071,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA26CH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA26CH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I22" s="1">
         <v>6800000</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA26CH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA26CH1(bValue:= , udiDelayNanoSek:= 6800000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1000,21 +1097,25 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>6150000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA26CH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA26CH2(bValue:= , udiDelayNanoSek:= 6150000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I23" s="1">
         <v>6650000</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA26CH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA26CH2(bValue:= , udiDelayNanoSek:= 6650000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1022,21 +1123,25 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA38OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA38OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I24" s="1">
         <v>6500000</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA38OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA38OGCH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1044,21 +1149,25 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>6200000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA38OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA38OGCH2(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I25" s="1">
         <v>6700000</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA38OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA38OGCH2(bValue:= , udiDelayNanoSek:= 6700000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1066,21 +1175,25 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>6200000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA41OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA41OGCH1(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I26" s="1">
         <v>6700000</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA41OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA41OGCH1(bValue:= , udiDelayNanoSek:= 6700000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1088,21 +1201,25 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>6100000</v>
+        <f t="shared" si="0"/>
+        <v>5600000</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA41OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA41OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA41OGCH2(bValue:= , udiDelayNanoSek:= 5600000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1110,21 +1227,25 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA43OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA43OGCH1(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I28" s="1">
         <v>6300000</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA43OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA43OGCH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1132,21 +1253,25 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA43OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA43OGCH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I29" s="1">
         <v>6300000</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA43OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA43OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1154,21 +1279,25 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA44OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA44OGCH1(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I30" s="1">
         <v>6300000</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA44OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA44OGCH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1176,21 +1305,25 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA44OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA44OGCH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I31" s="1">
         <v>6300000</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA44OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA44OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1198,21 +1331,25 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA45OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA45OGCH1(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I32" s="1">
         <v>6300000</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA45OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA45OGCH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1220,21 +1357,25 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA45OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA45OGCH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I33" s="1">
         <v>6300000</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA45OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA45OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1242,21 +1383,25 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA48OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA48OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I34" s="1">
         <v>6500000</v>
       </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA48OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA48OGCH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1264,21 +1409,25 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA48OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA48OGCH2(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I35" s="1">
         <v>6500000</v>
       </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA48OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA48OGCH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1286,21 +1435,25 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA49OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA49OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I36" s="1">
         <v>6500000</v>
       </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA49OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA49OGCH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -1308,21 +1461,25 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>5800000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA49OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA49OGCH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I37" s="1">
         <v>6300000</v>
       </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA49OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA49OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,21 +1487,25 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA50OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA50OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I38" s="1">
         <v>6500000</v>
       </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA50OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA50OGCH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,21 +1513,25 @@
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>6100000</v>
+        <f t="shared" si="0"/>
+        <v>5600000</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA50OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA50OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA50OGCH2(bValue:= , udiDelayNanoSek:= 5600000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1374,21 +1539,25 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA52OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA52OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I40" s="1">
         <v>6500000</v>
       </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA52OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA52OGCH1(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -1396,21 +1565,25 @@
         <v>2</v>
       </c>
       <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA52OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA52OGCH2(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I41" s="1">
         <v>6500000</v>
       </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA52OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA52OGCH2(bValue:= , udiDelayNanoSek:= 6500000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -1418,21 +1591,25 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>5900000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA53OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA53OGCH1(bValue:= , udiDelayNanoSek:= 5900000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I42" s="1">
         <v>6400000</v>
       </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA53OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA53OGCH1(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,21 +1617,25 @@
         <v>2</v>
       </c>
       <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>5900000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>fbA53OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>fbA53OGCH2(bValue:= , udiDelayNanoSek:= 5900000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
+      </c>
+      <c r="I43" s="1">
         <v>6400000</v>
       </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>fbA53OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA53OGCH2(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -1462,21 +1643,25 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>6400000</v>
+        <f t="shared" si="0"/>
+        <v>5900000</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA55OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA55OGCH1(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA55OGCH1(bValue:= , udiDelayNanoSek:= 5900000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -1484,21 +1669,25 @@
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>6100000</v>
+        <f t="shared" si="0"/>
+        <v>5600000</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA55OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA55OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA55OGCH2(bValue:= , udiDelayNanoSek:= 5600000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1506,21 +1695,25 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>6100000</v>
+        <f t="shared" si="0"/>
+        <v>5600000</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA56OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA56OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA56OGCH1(bValue:= , udiDelayNanoSek:= 5600000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I46" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1528,21 +1721,25 @@
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>6200000</v>
+        <f t="shared" si="0"/>
+        <v>5700000</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA56OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA56OGCH2(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA56OGCH2(bValue:= , udiDelayNanoSek:= 5700000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I47" s="1">
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1550,21 +1747,25 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>6100000</v>
+        <f t="shared" si="0"/>
+        <v>5600000</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA57OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA57OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA57OGCH1(bValue:= , udiDelayNanoSek:= 5600000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1572,505 +1773,575 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>6400000</v>
+        <f t="shared" si="0"/>
+        <v>5900000</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA57OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>fbA57OGCH2(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>fbA57OGCH2(bValue:= , udiDelayNanoSek:= 5900000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>6100000</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA15OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA15OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>6300000</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA15OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA15OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>6100000</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA17OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA17OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>6100000</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA17OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA17OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>6100000</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA18OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA18OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>6100000</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA18OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA18OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>6100000</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA19OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA19OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <v>6100000</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA19OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA19OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <v>6000000</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA21OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA21OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="1">
         <v>2</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>6100000</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA21OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA21OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>6100000</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA23OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA23OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <v>6100000</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA23OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA23OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>6100000</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA25OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA25OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>6100000</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA25OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA25OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>6100000</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA26OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA26OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>2</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>6100000</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA26OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA26OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase2.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>6100000</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fbA33OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fbA33OGCH1(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>6100000</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F75" si="2">CONCATENATE("fb",A67,"CH",B67,": FB_SYNC_RELAIS;")</f>
+        <f t="shared" ref="F67:F75" si="3">CONCATENATE("fb",A67,"CH",B67,": FB_SYNC_RELAIS;")</f>
         <v>fbA33OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G75" si="3">CONCATENATE("fb",A67,"CH",B67,"(bValue:= ",E67,", udiDelayNanoSek:= ",C67,", tNextZeroVoltage:= fbAnalyseVoltagePhase",D67,".tNextZeroVoltage);")</f>
+        <f t="shared" ref="G67:G75" si="4">CONCATENATE("fb",A67,"CH",B67,"(bValue:= ",E67,", udiDelayNanoSek:= ",C67,", tNextZeroVoltage:= fbAnalyseVoltagePhase",D67,".tNextZeroVoltage);")</f>
         <v>fbA33OGCH2(bValue:= , udiDelayNanoSek:= 6100000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>6300000</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA35OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fbA35OGCH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>6200000</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA35OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fbA35OGCH2(bValue:= , udiDelayNanoSek:= 6200000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>6400000</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA36OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fbA36OGCH1(bValue:= , udiDelayNanoSek:= 6400000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>6300000</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA36OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fbA36OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>42</v>
       </c>
@@ -2078,21 +2349,25 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>6300000</v>
+        <f t="shared" ref="C72:C75" si="5">I72-500000</f>
+        <v>5800000</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA78OGCH1: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="3"/>
-        <v>fbA78OGCH1(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>fbA78OGCH1(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I72" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>42</v>
       </c>
@@ -2100,21 +2375,25 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>6300000</v>
+        <f t="shared" si="5"/>
+        <v>5800000</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fbA78OGCH2: FB_SYNC_RELAIS;</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="3"/>
-        <v>fbA78OGCH2(bValue:= , udiDelayNanoSek:= 6300000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>fbA78OGCH2(bValue:= , udiDelayNanoSek:= 5800000, tNextZeroVoltage:= fbAnalyseVoltagePhase3.tNextZeroVoltage);</v>
+      </c>
+      <c r="I73" s="1">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>43</v>
       </c>
@@ -2122,21 +2401,25 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>5500000</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>fbA80OGCH1: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v>fbA80OGCH1(bValue:= , udiDelayNanoSek:= 5500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I74" s="1">
         <v>6000000</v>
       </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="2"/>
-        <v>fbA80OGCH1: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="3"/>
-        <v>fbA80OGCH1(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
@@ -2144,18 +2427,22 @@
         <v>2</v>
       </c>
       <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>5500000</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>fbA80OGCH2: FB_SYNC_RELAIS;</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>fbA80OGCH2(bValue:= , udiDelayNanoSek:= 5500000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
+      </c>
+      <c r="I75" s="1">
         <v>6000000</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="2"/>
-        <v>fbA80OGCH2: FB_SYNC_RELAIS;</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="3"/>
-        <v>fbA80OGCH2(bValue:= , udiDelayNanoSek:= 6000000, tNextZeroVoltage:= fbAnalyseVoltagePhase1.tNextZeroVoltage);</v>
       </c>
     </row>
   </sheetData>
